--- a/doc/工作计划表.xlsx
+++ b/doc/工作计划表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\doc\games\战旗\SLG_Warriors\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00E5CAC-633A-4D4B-B7F8-010F0F641267}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A885ED7F-1E19-47AB-9470-B2A00EACDA6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29505" yWindow="2055" windowWidth="13260" windowHeight="10620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8295" yWindow="2250" windowWidth="15150" windowHeight="12465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>加入BP系统UI和逻辑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>删除能量，修改属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>增加连击系统UI和逻辑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -56,6 +52,26 @@
   </si>
   <si>
     <t>修改AI逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除能量，修改成bp 显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>·1-3张关卡设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加地图障碍逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界观</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -63,7 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,13 +94,38 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -99,8 +140,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -381,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -392,44 +436,68 @@
     <col min="1" max="1" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/doc/工作计划表.xlsx
+++ b/doc/工作计划表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\doc\games\战旗\SLG_Warriors\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\games\SLG_Warriors\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A885ED7F-1E19-47AB-9470-B2A00EACDA6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE9EA0A-3589-4F80-9B1A-2F173ED8A5C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8295" yWindow="2250" windowWidth="15150" windowHeight="12465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="13">
   <si>
     <t>加入BP系统UI和逻辑</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,10 @@
   </si>
   <si>
     <t>世界观</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -96,7 +100,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -140,11 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -428,15 +432,15 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5" customWidth="1"/>
+    <col min="1" max="1" width="37.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,58 +448,61 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>

--- a/doc/工作计划表.xlsx
+++ b/doc/工作计划表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\games\SLG_Warriors\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\doc\games\战旗\SLG_Warriors\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE9EA0A-3589-4F80-9B1A-2F173ED8A5C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A94BCE-98E5-4364-A489-6B6F4D5150C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8295" yWindow="2250" windowWidth="15150" windowHeight="12465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>加入BP系统UI和逻辑</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在的争议：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否需要自身成长技能的讨论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改已有技能、人物属性的读取方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,82 +441,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.44140625" customWidth="1"/>
+    <col min="1" max="1" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/doc/工作计划表.xlsx
+++ b/doc/工作计划表.xlsx
@@ -1,123 +1,246 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\doc\games\战旗\SLG_Warriors\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A94BCE-98E5-4364-A489-6B6F4D5150C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8295" yWindow="2250" windowWidth="15150" windowHeight="12465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+  <si>
+    <t>世界观</t>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
   <si>
     <t>加入BP系统UI和逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除能量，修改成bp 显示</t>
   </si>
   <si>
     <t>增加连击系统UI和逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改AI逻辑</t>
+  </si>
+  <si>
+    <t>增加地图障碍逻辑</t>
+  </si>
+  <si>
+    <t>·1-3张关卡设计</t>
+  </si>
+  <si>
+    <t>增加场景切换逻辑</t>
   </si>
   <si>
     <t>增加开始界面、技能选择界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加场景切换逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>增加简单大世界场景、战斗场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改已有技能、人物属性的读取方式</t>
+  </si>
+  <si>
+    <t>几个简单技能，一个简单人物</t>
+  </si>
+  <si>
+    <t>存在的争议：</t>
   </si>
   <si>
     <t>四边形/六边形的讨论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改AI逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除能量，修改成bp 显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>·1-3张关卡设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加地图障碍逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>世界观</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存在的争议：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否需要自身成长技能的讨论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改已有技能、人物属性的读取方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,6 +249,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -138,12 +267,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -151,28 +466,315 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -221,7 +823,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -256,7 +858,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -430,116 +1032,117 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B12" s="5"/>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/工作计划表.xlsx
+++ b/doc/工作计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\games\SLG_Warriors\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12109621-BC1E-4489-B066-93F72C84E032}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFBF4D1-25D4-445C-BF59-0D43B77B74DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -289,17 +289,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,7 +579,7 @@
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -609,7 +609,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -621,16 +621,16 @@
       <c r="D2" s="3">
         <v>43779</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D3" s="3">
@@ -641,7 +641,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -651,12 +651,12 @@
       <c r="D4" s="3">
         <v>43779</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>8</v>
+      <c r="E4" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -671,7 +671,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
@@ -686,7 +686,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
@@ -694,12 +694,12 @@
         <v>12</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
@@ -714,7 +714,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
@@ -729,7 +729,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
@@ -744,7 +744,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
@@ -757,7 +757,7 @@
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
@@ -772,7 +772,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -789,7 +789,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
@@ -800,7 +800,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
@@ -811,7 +811,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
@@ -822,7 +822,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
@@ -833,7 +833,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
@@ -844,7 +844,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
@@ -855,7 +855,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="2" t="s">
         <v>30</v>
       </c>
@@ -868,7 +868,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="2" t="s">
         <v>31</v>
       </c>
@@ -881,7 +881,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="2" t="s">
         <v>32</v>
       </c>
@@ -894,7 +894,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="2" t="s">
         <v>33</v>
       </c>
@@ -907,7 +907,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="2" t="s">
         <v>34</v>
       </c>
@@ -920,7 +920,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="2" t="s">
         <v>35</v>
       </c>
@@ -933,7 +933,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="2" t="s">
         <v>36</v>
       </c>
@@ -944,7 +944,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="2" t="s">
         <v>37</v>
       </c>
@@ -955,7 +955,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="2" t="s">
         <v>38</v>
       </c>
@@ -966,7 +966,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B29" s="5"/>
@@ -975,77 +975,77 @@
       <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="6"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
+      <c r="A34" s="11"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
+      <c r="A35" s="11"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
+      <c r="A36" s="11"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="6"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
+      <c r="A37" s="11"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="6"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
+      <c r="A38" s="11"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="6"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
+      <c r="A39" s="11"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
+      <c r="A40" s="11"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>

--- a/doc/工作计划表.xlsx
+++ b/doc/工作计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\games\SLG_Warriors\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFBF4D1-25D4-445C-BF59-0D43B77B74DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D6DB21-C936-4BF6-8DE8-AE4A25C6B7C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
   <si>
     <t>目标</t>
   </si>
@@ -86,12 +86,6 @@
   </si>
   <si>
     <t>场景背景贴图和元素贴图</t>
-  </si>
-  <si>
-    <t>正式demo：开始界面，初始大世界，新手引导战斗，新手村，2-3场战斗关卡设计</t>
-  </si>
-  <si>
-    <t>场景切换逻辑</t>
   </si>
   <si>
     <t>初始界面UI和逻辑</t>
@@ -160,6 +154,18 @@
   </si>
   <si>
     <t>ty</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景切换逻辑</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>正式demo：开始界面，初始大世界，新手引导战斗，新手村，2-3场战斗关卡设计</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -167,7 +173,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +239,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -269,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -299,6 +313,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -579,7 +596,7 @@
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -622,7 +639,7 @@
         <v>43779</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -642,44 +659,44 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
+      <c r="B4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="D4" s="3">
         <v>43779</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>43</v>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="3">
-        <v>43786</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>8</v>
+        <v>43779</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D6" s="3">
-        <v>43779</v>
+        <v>43786</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>8</v>
@@ -688,12 +705,14 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="3">
+        <v>43779</v>
+      </c>
       <c r="E7" s="9" t="s">
         <v>14</v>
       </c>
@@ -701,28 +720,28 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>8</v>
+      <c r="D8" s="3">
+        <v>43779</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="3">
-        <v>43779</v>
+      <c r="D9" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>8</v>
@@ -731,10 +750,10 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D10" s="3">
         <v>43779</v>
@@ -746,7 +765,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>19</v>
@@ -754,44 +773,46 @@
       <c r="D11" s="3">
         <v>43779</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="3">
-        <v>43786</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>8</v>
+        <v>43779</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>22</v>
-      </c>
+      <c r="A13" s="11"/>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D13" s="3">
         <v>43786</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>8</v>
+      <c r="E13" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+      <c r="A14" s="13" t="s">
+        <v>46</v>
+      </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -802,7 +823,7 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -813,7 +834,7 @@
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -824,7 +845,7 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -835,7 +856,7 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -846,7 +867,7 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -857,7 +878,7 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>19</v>
@@ -870,7 +891,7 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>19</v>
@@ -883,7 +904,7 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>19</v>
@@ -896,7 +917,7 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>19</v>
@@ -909,7 +930,7 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>19</v>
@@ -922,7 +943,7 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>19</v>
@@ -935,7 +956,7 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -946,7 +967,7 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -957,7 +978,7 @@
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -967,7 +988,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1032,9 +1053,9 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
       <c r="E38" s="6"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1086,23 +1107,23 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A13:A28"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A14:A28"/>
     <mergeCell ref="A29:A40"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/doc/工作计划表.xlsx
+++ b/doc/工作计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\games\SLG_Warriors\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D6DB21-C936-4BF6-8DE8-AE4A25C6B7C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF9E7EB-C94A-40C9-A556-C0D5B721A382}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
   <si>
     <t>目标</t>
   </si>
@@ -166,6 +166,34 @@
   </si>
   <si>
     <t>正式demo：开始界面，初始大世界，新手引导战斗，新手村，2-3场战斗关卡设计</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>极简demo优化和完善</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景切换和多场景逻辑优化</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗镜头的跟随和优化</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>连招的增加和优化</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能选择界面的优化</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景贴图、人物贴图</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始界面图</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -256,7 +284,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -279,11 +307,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -312,11 +377,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -653,8 +730,8 @@
       <c r="D3" s="3">
         <v>43779</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
+      <c r="E3" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -668,8 +745,8 @@
       <c r="D4" s="3">
         <v>43779</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>8</v>
+      <c r="E4" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -735,13 +812,13 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>16</v>
+      <c r="D9" s="3">
+        <v>43779</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>8</v>
@@ -750,10 +827,10 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D10" s="3">
         <v>43779</v>
@@ -765,7 +842,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>19</v>
@@ -773,265 +850,279 @@
       <c r="D11" s="3">
         <v>43779</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>8</v>
+      <c r="E11" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="3">
-        <v>43779</v>
+        <v>43786</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+    <row r="13" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="3">
-        <v>43786</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>19</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>19</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>19</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>19</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>19</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="D26" s="5"/>
       <c r="E26" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="D27" s="5"/>
       <c r="E27" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="D28" s="5"/>
       <c r="E28" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="D29" s="5"/>
-      <c r="E29" s="6"/>
+      <c r="E29" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="D30" s="5"/>
-      <c r="E30" s="6"/>
+      <c r="E30" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="D31" s="5"/>
-      <c r="E31" s="6"/>
+      <c r="E31" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="5"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="6"/>
+      <c r="E32" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="5"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="6"/>
+      <c r="E33" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="5"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="6"/>
+      <c r="E34" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
+      <c r="A35" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -1053,42 +1144,66 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
       <c r="E38" s="6"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
       <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
       <c r="E40" s="6"/>
     </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="6"/>
+    </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="7"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="6"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="7"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="7"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="7"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="8"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="7"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
@@ -1103,28 +1218,47 @@
       <c r="B52" s="7"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="7"/>
+      <c r="B53" s="8"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B54" s="7"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="7"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="7"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="7"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="7"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="7"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="A14:A28"/>
-    <mergeCell ref="A29:A40"/>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A20:A34"/>
+    <mergeCell ref="A35:A46"/>
+    <mergeCell ref="A13:A19"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/工作计划表.xlsx
+++ b/doc/工作计划表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\games\SLG_Warriors\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\doc\games\战旗\SLG_Warriors\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98CC554-8FDD-412D-9318-1DB56DD9D25A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A23090-C107-4C6D-88BC-4CC93B3403D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -627,19 +627,19 @@
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.44140625" customWidth="1"/>
-    <col min="2" max="2" width="29.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="37.5" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -656,7 +656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
@@ -673,7 +673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="5" t="s">
         <v>9</v>
@@ -688,7 +688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="5" t="s">
         <v>10</v>
@@ -703,7 +703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
@@ -718,7 +718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
@@ -729,11 +729,11 @@
       <c r="D6" s="3">
         <v>43786</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="2" t="s">
         <v>14</v>
@@ -748,7 +748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="2" t="s">
         <v>16</v>
@@ -763,7 +763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
       <c r="B9" s="2" t="s">
         <v>17</v>
@@ -778,7 +778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
       <c r="B10" s="2" t="s">
         <v>18</v>
@@ -793,7 +793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
       <c r="B11" s="2" t="s">
         <v>20</v>
@@ -808,7 +808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="2" t="s">
         <v>21</v>
@@ -823,7 +823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>22</v>
       </c>
@@ -836,11 +836,11 @@
       <c r="D13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="8" t="s">
         <v>25</v>
@@ -853,7 +853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="5" t="s">
         <v>26</v>
@@ -866,7 +866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="B16" s="5" t="s">
         <v>27</v>
@@ -879,7 +879,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
       <c r="B17" s="2" t="s">
         <v>28</v>
@@ -892,7 +892,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="B18" s="9" t="s">
         <v>29</v>
@@ -905,7 +905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
         <v>30</v>
       </c>
@@ -918,7 +918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="18"/>
       <c r="B20" s="2" t="s">
         <v>32</v>
@@ -929,7 +929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
       <c r="B21" s="2" t="s">
         <v>33</v>
@@ -940,7 +940,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="18"/>
       <c r="B22" s="2" t="s">
         <v>34</v>
@@ -951,7 +951,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
       <c r="B23" s="2" t="s">
         <v>35</v>
@@ -962,7 +962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="18"/>
       <c r="B24" s="2" t="s">
         <v>36</v>
@@ -973,7 +973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
       <c r="B25" s="2" t="s">
         <v>37</v>
@@ -986,7 +986,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
       <c r="B26" s="2" t="s">
         <v>38</v>
@@ -999,7 +999,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="18"/>
       <c r="B27" s="2" t="s">
         <v>39</v>
@@ -1012,7 +1012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="18"/>
       <c r="B28" s="2" t="s">
         <v>40</v>
@@ -1025,7 +1025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="18"/>
       <c r="B29" s="2" t="s">
         <v>41</v>
@@ -1038,7 +1038,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="18"/>
       <c r="B30" s="2" t="s">
         <v>42</v>
@@ -1051,7 +1051,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
       <c r="B31" s="2" t="s">
         <v>43</v>
@@ -1062,7 +1062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="18"/>
       <c r="B32" s="2" t="s">
         <v>44</v>
@@ -1073,7 +1073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="18"/>
       <c r="B33" s="2" t="s">
         <v>45</v>
@@ -1084,7 +1084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>46</v>
       </c>
@@ -1093,127 +1093,127 @@
       <c r="D34" s="7"/>
       <c r="E34" s="10"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="10"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="10"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="13"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="10"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="13"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="10"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="13"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="10"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="13"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="10"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="13"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="10"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="13"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="10"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="13"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="13"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="13"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B48" s="11"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B49" s="11"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B50" s="11"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B51" s="11"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B52" s="12"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B53" s="11"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B54" s="11"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B55" s="11"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B56" s="11"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B57" s="11"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B58" s="11"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>49</v>
       </c>

--- a/doc/工作计划表.xlsx
+++ b/doc/工作计划表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\doc\games\战旗\SLG_Warriors\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\games\SLG_Warriors\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A23090-C107-4C6D-88BC-4CC93B3403D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0F3729-6B7C-455C-8227-A9A4B9C9EAE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="49">
   <si>
     <t>目标</t>
   </si>
@@ -94,9 +94,6 @@
     <t>AI战斗逻辑</t>
   </si>
   <si>
-    <t>11月底</t>
-  </si>
-  <si>
     <t>地图格子颜色</t>
   </si>
   <si>
@@ -109,74 +106,75 @@
     <t>地图人物配置xml读取</t>
   </si>
   <si>
+    <t>正式demo：开始界面，初始大世界，新手引导战斗，新手村，2-3场战斗关卡设计</t>
+  </si>
+  <si>
+    <t>初始界面UI和逻辑</t>
+  </si>
+  <si>
+    <t>初始大世界行动逻辑</t>
+  </si>
+  <si>
+    <t>初始大世界AI逻辑</t>
+  </si>
+  <si>
+    <t>新手引导逻辑</t>
+  </si>
+  <si>
+    <t>新手引导AI设计</t>
+  </si>
+  <si>
+    <t>新手引导关卡设计</t>
+  </si>
+  <si>
+    <t>新手村地图设计</t>
+  </si>
+  <si>
+    <t>初始界面背景，标题</t>
+  </si>
+  <si>
+    <t>大世界贴图建模</t>
+  </si>
+  <si>
+    <t>新手村地图</t>
+  </si>
+  <si>
+    <t>新手村AI贴图</t>
+  </si>
+  <si>
+    <t>新手引导AI贴图</t>
+  </si>
+  <si>
+    <t>文字剧情&amp;UI</t>
+  </si>
+  <si>
+    <t>对话背景&amp;对话字体</t>
+  </si>
+  <si>
+    <t>背景音乐&amp;技能音效&amp;配音</t>
+  </si>
+  <si>
+    <t>小品级成品</t>
+  </si>
+  <si>
+    <t>存在的争议：</t>
+  </si>
+  <si>
+    <t>四边形/六边形的讨论</t>
+  </si>
+  <si>
+    <t>是否需要自身成长技能的讨论</t>
+  </si>
+  <si>
     <t>人物属性介绍UI界面</t>
-  </si>
-  <si>
-    <t>正式demo：开始界面，初始大世界，新手引导战斗，新手村，2-3场战斗关卡设计</t>
-  </si>
-  <si>
-    <t>初始界面UI和逻辑</t>
-  </si>
-  <si>
-    <t>初始大世界行动逻辑</t>
-  </si>
-  <si>
-    <t>初始大世界AI逻辑</t>
-  </si>
-  <si>
-    <t>新手引导逻辑</t>
-  </si>
-  <si>
-    <t>新手引导AI设计</t>
-  </si>
-  <si>
-    <t>新手引导关卡设计</t>
-  </si>
-  <si>
-    <t>新手村地图设计</t>
-  </si>
-  <si>
-    <t>初始界面背景，标题</t>
-  </si>
-  <si>
-    <t>大世界贴图建模</t>
-  </si>
-  <si>
-    <t>新手村地图</t>
-  </si>
-  <si>
-    <t>新手村AI贴图</t>
-  </si>
-  <si>
-    <t>新手引导AI贴图</t>
-  </si>
-  <si>
-    <t>文字剧情&amp;UI</t>
-  </si>
-  <si>
-    <t>对话背景&amp;对话字体</t>
-  </si>
-  <si>
-    <t>背景音乐&amp;技能音效&amp;配音</t>
-  </si>
-  <si>
-    <t>小品级成品</t>
-  </si>
-  <si>
-    <t>存在的争议：</t>
-  </si>
-  <si>
-    <t>四边形/六边形的讨论</t>
-  </si>
-  <si>
-    <t>是否需要自身成长技能的讨论</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +234,14 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -299,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -323,9 +329,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -348,6 +351,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -627,19 +636,19 @@
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5" customWidth="1"/>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="37.44140625" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -656,8 +665,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -673,8 +682,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="13"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
@@ -688,8 +697,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
       <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
@@ -703,8 +712,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -718,8 +727,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
@@ -733,8 +742,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
@@ -748,8 +757,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
@@ -763,8 +772,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
@@ -778,8 +787,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
       <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
@@ -793,8 +802,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
@@ -808,8 +817,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
@@ -823,8 +832,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -833,17 +842,17 @@
       <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="19">
+        <v>43789</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>15</v>
@@ -853,10 +862,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
+    <row r="15" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
       <c r="B15" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>15</v>
@@ -866,51 +875,55 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="5" t="s">
-        <v>27</v>
+    <row r="16" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
+      <c r="D16" s="3">
+        <v>43791</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="9" t="s">
-        <v>29</v>
+      <c r="D17" s="3">
+        <v>43796</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
-        <v>30</v>
+      <c r="E18" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -918,10 +931,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -929,10 +942,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -940,10 +953,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
       <c r="B22" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -951,10 +964,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -962,10 +975,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -973,88 +986,76 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
       <c r="B25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>19</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
       <c r="B26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>19</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
       <c r="B27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>19</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
       <c r="B28" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>19</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
       <c r="B29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>19</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="17"/>
       <c r="B30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>19</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="17"/>
       <c r="B31" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1062,10 +1063,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="17"/>
       <c r="B32" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1073,10 +1074,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="17"/>
       <c r="B33" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1084,138 +1085,138 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
-        <v>46</v>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="10"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="13"/>
+      <c r="E34" s="9"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
-      <c r="E35" s="10"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="13"/>
+      <c r="E35" s="9"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="13"/>
+      <c r="E36" s="9"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
-      <c r="E37" s="10"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="13"/>
+      <c r="E37" s="9"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
-      <c r="E38" s="10"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="13"/>
+      <c r="E38" s="9"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
-      <c r="E39" s="10"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="13"/>
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
-      <c r="E40" s="10"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
+      <c r="E40" s="9"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
-      <c r="E41" s="10"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="13"/>
+      <c r="E41" s="9"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
-      <c r="E42" s="10"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="13"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="13"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="13"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B48" s="11"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B49" s="11"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B50" s="11"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B51" s="11"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B52" s="12"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B53" s="11"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B54" s="11"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B55" s="11"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B56" s="11"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B57" s="11"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B58" s="11"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="12"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="12"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="10"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="10"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="10"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="10"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="11"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="10"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="10"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="10"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="10"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="10"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="10"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1227,6 +1228,6 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/工作计划表.xlsx
+++ b/doc/工作计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\games\SLG_Warriors\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0F3729-6B7C-455C-8227-A9A4B9C9EAE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAA04C9-EC4F-45CF-962A-3FD43F5BBF37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -334,6 +334,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -351,12 +357,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,7 +636,7 @@
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -666,7 +666,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -683,7 +683,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
@@ -698,7 +698,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
@@ -713,7 +713,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -728,7 +728,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
@@ -743,7 +743,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
@@ -758,7 +758,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
@@ -773,7 +773,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
@@ -788,7 +788,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
@@ -803,7 +803,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
@@ -818,7 +818,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
@@ -833,7 +833,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -842,7 +842,7 @@
       <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="13">
         <v>43789</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -850,7 +850,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="8" t="s">
         <v>24</v>
       </c>
@@ -863,7 +863,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="5" t="s">
         <v>25</v>
       </c>
@@ -876,8 +876,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="12" t="s">
         <v>48</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -891,7 +891,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
@@ -906,20 +906,22 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="6" t="s">
-        <v>13</v>
+      <c r="D18" s="3">
+        <v>43801</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="18" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -932,7 +934,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="2" t="s">
         <v>30</v>
       </c>
@@ -943,7 +945,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="2" t="s">
         <v>31</v>
       </c>
@@ -954,7 +956,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="2" t="s">
         <v>32</v>
       </c>
@@ -965,7 +967,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="2" t="s">
         <v>33</v>
       </c>
@@ -976,7 +978,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="2" t="s">
         <v>34</v>
       </c>
@@ -987,7 +989,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="2" t="s">
         <v>35</v>
       </c>
@@ -998,7 +1000,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="2" t="s">
         <v>36</v>
       </c>
@@ -1009,7 +1011,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="2" t="s">
         <v>37</v>
       </c>
@@ -1020,7 +1022,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="2" t="s">
         <v>38</v>
       </c>
@@ -1031,7 +1033,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="2" t="s">
         <v>39</v>
       </c>
@@ -1042,7 +1044,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="2" t="s">
         <v>40</v>
       </c>
@@ -1053,7 +1055,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="2" t="s">
         <v>41</v>
       </c>
@@ -1064,7 +1066,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="2" t="s">
         <v>42</v>
       </c>
@@ -1075,7 +1077,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
+      <c r="A33" s="19"/>
       <c r="B33" s="2" t="s">
         <v>43</v>
       </c>
@@ -1086,7 +1088,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="14" t="s">
         <v>44</v>
       </c>
       <c r="B34" s="7"/>
@@ -1095,77 +1097,77 @@
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
+      <c r="A35" s="14"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="9"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
+      <c r="A36" s="14"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="9"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
+      <c r="A37" s="14"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
+      <c r="A38" s="14"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="9"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="9"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
+      <c r="A40" s="14"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="9"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
+      <c r="A41" s="14"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="9"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
+      <c r="A42" s="14"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="9"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
+      <c r="A43" s="14"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
+      <c r="A44" s="14"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
+      <c r="A45" s="14"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>

--- a/doc/工作计划表.xlsx
+++ b/doc/工作计划表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\games\SLG_Warriors\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\doc\games\战旗\SLG_Warriors\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAA04C9-EC4F-45CF-962A-3FD43F5BBF37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA439EC-F8E9-443E-9FCB-187792EB64FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="62">
   <si>
     <t>目标</t>
   </si>
@@ -88,9 +88,6 @@
     <t>场景背景贴图和元素贴图</t>
   </si>
   <si>
-    <t>极简demo优化和完善</t>
-  </si>
-  <si>
     <t>AI战斗逻辑</t>
   </si>
   <si>
@@ -167,6 +164,101 @@
   </si>
   <si>
     <t>人物属性介绍UI界面</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ink/ty</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜头自动控制</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ink</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>高度差对攻击距离的影响</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>高度层次地图显示</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>连招的增加和优化</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>克制关系、属性补正</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼠标悬停显示</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>极简demo完善</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>极简demo优化</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家回合结束确认</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y</t>
+    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -174,7 +266,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,13 +337,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -305,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -340,12 +446,12 @@
     <xf numFmtId="58" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -357,6 +463,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -633,22 +751,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.44140625" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="37.5" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -665,8 +783,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -682,8 +800,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="15"/>
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
@@ -697,8 +815,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
       <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
@@ -712,8 +830,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -727,8 +845,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
@@ -742,8 +860,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
@@ -757,8 +875,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
@@ -772,8 +890,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
@@ -787,8 +905,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
       <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
@@ -802,8 +920,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
@@ -817,8 +935,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
@@ -832,12 +950,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>15</v>
@@ -849,36 +967,40 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
       <c r="B14" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="3">
+        <v>43796</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="3">
+        <v>43796</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
       <c r="B16" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>7</v>
@@ -890,10 +1012,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17"/>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>7</v>
@@ -905,10 +1027,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>7</v>
@@ -920,89 +1042,91 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+    <row r="19" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="23"/>
+      <c r="B20" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="20"/>
+      <c r="B21" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="20"/>
+      <c r="B22" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="20"/>
+      <c r="B23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="20"/>
+      <c r="B24" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="20"/>
+      <c r="B25" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1010,10 +1134,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
       <c r="B27" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1021,10 +1145,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="19"/>
       <c r="B28" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1032,10 +1156,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="19"/>
       <c r="B29" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1043,10 +1167,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="19"/>
       <c r="B30" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1054,10 +1178,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
       <c r="B31" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1065,10 +1189,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
       <c r="B32" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1076,10 +1200,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="19"/>
       <c r="B33" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1087,146 +1211,224 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="7"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="19"/>
+      <c r="B34" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="9"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="7"/>
+      <c r="E34" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="19"/>
+      <c r="B35" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
-      <c r="E35" s="9"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="7"/>
+      <c r="E35" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="19"/>
+      <c r="B36" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="9"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="7"/>
+      <c r="E36" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="19"/>
+      <c r="B37" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
-      <c r="E37" s="9"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="7"/>
+      <c r="E37" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="19"/>
+      <c r="B38" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
-      <c r="E38" s="9"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="7"/>
+      <c r="E38" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="19"/>
+      <c r="B39" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
-      <c r="E39" s="9"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="7"/>
+      <c r="E39" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="19"/>
+      <c r="B40" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
-      <c r="E40" s="9"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
+      <c r="E40" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="15" t="s">
+        <v>43</v>
+      </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="9"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="15"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="9"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="15"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
       <c r="E43" s="9"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="15"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
       <c r="E44" s="9"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="15"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
       <c r="E45" s="9"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="10"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="10"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="10"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="10"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="11"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="10"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="10"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="15"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="9"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="15"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="9"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="15"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="9"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="15"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="9"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="15"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="15"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="15"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B55" s="10"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B56" s="10"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B57" s="10"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B58" s="10"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B59" s="11"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B60" s="10"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="10"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B62" s="10"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B63" s="10"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B64" s="10"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B65" s="10"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>47</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A19:A33"/>
-    <mergeCell ref="A34:A45"/>
+    <mergeCell ref="A26:A40"/>
+    <mergeCell ref="A41:A52"/>
+    <mergeCell ref="A19:A25"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
